--- a/Lectures/Lecture 5/BeaverCreek.xlsx
+++ b/Lectures/Lecture 5/BeaverCreek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA07FC5-F7A6-4F66-B3F3-DC0F0B01C472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440ED538-6758-4253-89B4-8EA8EBF70CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="1" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
+    <workbookView xWindow="4280" yWindow="1460" windowWidth="17080" windowHeight="8560" activeTab="1" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="2" r:id="rId1"/>

--- a/Lectures/Lecture 5/BeaverCreek.xlsx
+++ b/Lectures/Lecture 5/BeaverCreek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440ED538-6758-4253-89B4-8EA8EBF70CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB19F24-D440-4E01-9582-89943DE95CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="1460" windowWidth="17080" windowHeight="8560" activeTab="1" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="1" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="2" r:id="rId1"/>
@@ -972,7 +972,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="D6" s="12">
         <f>B6*B11+C6*B12</f>
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>10</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="G6" s="12">
         <f>F6-D6</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D7" s="13">
         <f>B7*B11+C7*B12</f>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>10</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="G7" s="13">
         <f>F7-D7</f>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1086,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B13">
         <f>B4*B11+C4*B12</f>
-        <v>1360</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/Lectures/Lecture 5/BeaverCreek.xlsx
+++ b/Lectures/Lecture 5/BeaverCreek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB19F24-D440-4E01-9582-89943DE95CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4348641-4346-4627-93E9-B2655523A56A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="1" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
+    <workbookView xWindow="3420" yWindow="1360" windowWidth="20570" windowHeight="10160" activeTab="1" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="2" r:id="rId1"/>
@@ -972,7 +972,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
